--- a/src/main/resources/test/v1/data-test.xlsx
+++ b/src/main/resources/test/v1/data-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomena/S5/Mr-Tahina/Docteur/src/main/resources/test/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7D4B0-C6AA-024C-98C2-0DE4AC903838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D68F04-16C8-574A-AAE0-8C4F11566D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="22480" windowHeight="16940" activeTab="1" xr2:uid="{0BEF9FD4-D2C7-614F-A1B4-49FF46FE45AD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -472,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -509,6 +509,17 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,25 +541,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers [0]" xfId="1" builtinId="6"/>
@@ -866,13 +861,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01406F79-93CF-4446-A8C4-25A15FD9EAD8}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A3" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
@@ -1022,15 +1017,15 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1239,15 +1234,15 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
       <c r="J25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1506,15 +1501,15 @@
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="38"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49"/>
       <c r="J43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1721,19 +1716,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B255CFB-74EF-A643-828C-F00115689869}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -1972,15 +1968,15 @@
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
@@ -2222,15 +2218,15 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="13"/>
       <c r="J25" s="14" t="s">
         <v>0</v>
@@ -2391,7 +2387,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="46" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2527,15 +2523,15 @@
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
       <c r="I43" s="30"/>
       <c r="J43" s="14" t="s">
         <v>0</v>
@@ -2796,7 +2792,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3044,15 +3040,15 @@
     </row>
     <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
@@ -3294,15 +3290,15 @@
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="13"/>
       <c r="J25" s="14" t="s">
         <v>0</v>
@@ -3310,22 +3306,22 @@
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="44" t="s">
+      <c r="C26" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="44" t="s">
+      <c r="E26" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="37" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="22" t="s">
@@ -3435,7 +3431,7 @@
       <c r="A32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -3453,7 +3449,7 @@
       <c r="A33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="39">
         <v>1</v>
       </c>
       <c r="C33" s="23"/>
@@ -3465,25 +3461,25 @@
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="55">
+      <c r="B34" s="39">
         <v>1</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
-      <c r="B35" s="46"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="23"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -3495,7 +3491,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
-      <c r="B36" s="46"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="23"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -3507,7 +3503,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
-      <c r="B37" s="46"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="19"/>
       <c r="D37" s="26"/>
       <c r="E37" s="13"/>
@@ -3519,7 +3515,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="19"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -3542,16 +3538,16 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
@@ -3569,15 +3565,15 @@
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="53"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="30"/>
       <c r="J42" s="14" t="s">
         <v>0</v>
@@ -3709,10 +3705,10 @@
       <c r="A50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="13"/>
@@ -3727,7 +3723,7 @@
       <c r="A51" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="39">
         <v>9</v>
       </c>
       <c r="C51" s="19">
@@ -3742,13 +3738,13 @@
       <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="41">
         <v>2</v>
       </c>
-      <c r="C52" s="49">
+      <c r="C52" s="42">
         <v>16000</v>
       </c>
       <c r="D52" s="13"/>
@@ -3760,13 +3756,13 @@
       <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="48">
-        <v>9</v>
-      </c>
-      <c r="C53" s="49">
+      <c r="B53" s="41">
+        <v>9</v>
+      </c>
+      <c r="C53" s="42">
         <v>99000</v>
       </c>
       <c r="D53" s="13"/>
@@ -3781,7 +3777,7 @@
       <c r="A54" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="39">
         <v>9</v>
       </c>
       <c r="C54" s="19">
@@ -3796,13 +3792,13 @@
       <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="48">
-        <v>9</v>
-      </c>
-      <c r="C55" s="49">
+      <c r="B55" s="41">
+        <v>9</v>
+      </c>
+      <c r="C55" s="42">
         <v>54000</v>
       </c>
       <c r="D55" s="26"/>
@@ -3817,7 +3813,7 @@
       <c r="A56" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="39">
         <v>5</v>
       </c>
       <c r="C56" s="19">
